--- a/Networks/Parte2/Excel/Parte2-Network18.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network18.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2920234044013271</v>
+        <v>-0.6852681951507055</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.027279082404792</v>
+        <v>-0.9444071000789144</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.769576343873032</v>
+        <v>0.7040477222343404</v>
       </c>
       <c r="C3" t="n">
-        <v>1.031356069311732</v>
+        <v>0.3703053666688542</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.556689463606151</v>
+        <v>0.4206588654705107</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9057654261154867</v>
+        <v>-0.3542991439712816</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.221453144292586</v>
+        <v>-1.438513459931377</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.167197532869769</v>
+        <v>-0.1965484604575288</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.717174945942164</v>
+        <v>0.8045302909411134</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6249038990668473</v>
+        <v>-0.1681934557501857</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.459849770006241</v>
+        <v>0.2642770586559482</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.03646309738370146</v>
+        <v>0.9442755498641071</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte2/Excel/Parte2-Network18.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network18.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.6852681951507055</v>
+        <v>-0.2762176144268791</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.9444071000789144</v>
+        <v>-0.2488306182889404</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7040477222343404</v>
+        <v>-0.4599053708787398</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3703053666688542</v>
+        <v>-0.3910610995737829</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4206588654705107</v>
+        <v>-0.8895767500632773</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3542991439712816</v>
+        <v>-0.9916701249079565</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.438513459931377</v>
+        <v>-0.5496112782640099</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1965484604575288</v>
+        <v>0.02537908584381716</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8045302909411134</v>
+        <v>-0.8152621695976044</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1681934557501857</v>
+        <v>-0.5800336624975728</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2642770586559482</v>
+        <v>-1.166211979426532</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9442755498641071</v>
+        <v>0.4814866994593548</v>
       </c>
     </row>
   </sheetData>
